--- a/cosinor_results_workdays/best_models_workdays.xlsx
+++ b/cosinor_results_workdays/best_models_workdays.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>test</t>
   </si>
@@ -49,9 +49,6 @@
     <t>log-likelihood</t>
   </si>
   <si>
-    <t>period(est)</t>
-  </si>
-  <si>
     <t>amplitude</t>
   </si>
   <si>
@@ -115,148 +112,148 @@
     <t>route_5_workday</t>
   </si>
   <si>
-    <t>[12.71271271]</t>
-  </si>
-  <si>
-    <t>[ 7.50750751 12.31231231 15.51551552]</t>
-  </si>
-  <si>
-    <t>[11.51151151 14.01401401 18.01801802 20.12012012 22.82282282]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 11.91191191 14.71471471 21.42142142]</t>
-  </si>
-  <si>
-    <t>[11.91191191 14.81481481 17.11711712 19.21921922 21.62162162 23.62362362]</t>
-  </si>
-  <si>
-    <t>[ 7.80780781 10.81081081 12.81281281 15.71571572]</t>
-  </si>
-  <si>
-    <t>[12.21221221 16.71671672 19.51951952]</t>
-  </si>
-  <si>
-    <t>[11.81181181 15.51551552]</t>
-  </si>
-  <si>
-    <t>[10.91091091 12.51251251 15.31531532 18.31831832 21.92192192]</t>
-  </si>
-  <si>
-    <t>[ 7.60760761 12.11211211 16.01601602]</t>
-  </si>
-  <si>
-    <t>[11.61161161 14.01401401 19.61961962 22.12212212]</t>
-  </si>
-  <si>
-    <t>[ 7.40740741 10.51051051 12.31231231 15.41541542]</t>
-  </si>
-  <si>
-    <t>[0.12370663]</t>
-  </si>
-  <si>
-    <t>[0.13536292 0.12412867 0.13654794]</t>
-  </si>
-  <si>
-    <t>[0.14386049 0.13848392 0.13498507 0.13494302 0.13079376]</t>
-  </si>
-  <si>
-    <t>[0.1427609  0.14251701 0.14308186 0.13263968]</t>
-  </si>
-  <si>
-    <t>[0.14441236 0.14102935 0.14169842 0.14437495 0.1384945  0.13598696]</t>
-  </si>
-  <si>
-    <t>[0.18105169 0.16018726 0.15902313 0.18756352]</t>
-  </si>
-  <si>
-    <t>[0.15493614 0.14886879 0.14705669]</t>
-  </si>
-  <si>
-    <t>[0.18109141 0.19773414]</t>
-  </si>
-  <si>
-    <t>[0.13581426 0.13646275 0.13651713 0.13652083 0.12803216]</t>
-  </si>
-  <si>
-    <t>[0.1669896  0.15500541 0.16735936]</t>
-  </si>
-  <si>
-    <t>[0.05722781 0.0566627  0.0577442  0.05533183]</t>
-  </si>
-  <si>
-    <t>[0.06413497 0.06018067 0.0608093  0.06585082]</t>
-  </si>
-  <si>
-    <t>[4.1041041]</t>
-  </si>
-  <si>
-    <t>[ 2.6026026   5.30530531  9.50950951 20.52052052]</t>
-  </si>
-  <si>
-    <t>[ 0.7007007   2.9029029   5.10510511  7.40740741 21.82182182]</t>
-  </si>
-  <si>
-    <t>[ 3.2032032  20.22022022 23.12312312]</t>
-  </si>
-  <si>
-    <t>[1.7017017  4.7047047  7.60760761]</t>
-  </si>
-  <si>
-    <t>[ 3.9039039   9.60960961 21.92192192]</t>
-  </si>
-  <si>
-    <t>[ 0.3003003   2.8028028   5.50550551 21.62162162]</t>
-  </si>
-  <si>
-    <t>[ 3.4034034   8.80880881 23.72372372]</t>
-  </si>
-  <si>
-    <t>[1.8018018  5.00500501]</t>
-  </si>
-  <si>
-    <t>[0.5005005 2.6026026 4.8048048]</t>
-  </si>
-  <si>
-    <t>[0.5005005  2.8028028  7.80780781]</t>
-  </si>
-  <si>
-    <t>[0.9009009  3.5035035  5.00500501 9.10910911]</t>
-  </si>
-  <si>
-    <t>[0.10627957]</t>
-  </si>
-  <si>
-    <t>[0.1081667  0.11390659 0.12111748 0.11728339]</t>
-  </si>
-  <si>
-    <t>[0.11917881 0.12068772 0.11769564 0.11919961 0.12813776]</t>
-  </si>
-  <si>
-    <t>[0.11771382 0.12955632 0.12466224]</t>
-  </si>
-  <si>
-    <t>[0.1247141  0.13145366 0.13114384]</t>
-  </si>
-  <si>
-    <t>[0.12573429 0.15589845 0.13978464]</t>
-  </si>
-  <si>
-    <t>[0.1282742  0.12762113 0.12990198 0.13634923]</t>
-  </si>
-  <si>
-    <t>[0.13805446 0.1632782  0.13248834]</t>
-  </si>
-  <si>
-    <t>[0.11420062 0.11785462]</t>
-  </si>
-  <si>
-    <t>[0.1200264  0.12173196 0.12366142]</t>
-  </si>
-  <si>
-    <t>[0.05363735 0.05286691 0.0530649 ]</t>
-  </si>
-  <si>
-    <t>[0.05357793 0.05535884 0.05528654 0.05904189]</t>
+    <t>[12.68468468]</t>
+  </si>
+  <si>
+    <t>[ 7.4954955  12.25225225 15.56756757]</t>
+  </si>
+  <si>
+    <t>[11.53153153 14.07807808 18.01801802 20.13213213 22.82282282]</t>
+  </si>
+  <si>
+    <t>[ 7.59159159 11.96396396 14.7027027  21.42942943]</t>
+  </si>
+  <si>
+    <t>[11.91591592 14.84684685 17.15315315 19.17117117 21.66966967 23.63963964]</t>
+  </si>
+  <si>
+    <t>[ 7.83183183 10.76276276 12.78078078 15.66366366]</t>
+  </si>
+  <si>
+    <t>[12.2042042  16.67267267 19.50750751]</t>
+  </si>
+  <si>
+    <t>[11.86786787 15.56756757]</t>
+  </si>
+  <si>
+    <t>[10.95495495 12.49249249 15.27927928 18.30630631 21.86186186]</t>
+  </si>
+  <si>
+    <t>[ 7.59159159 12.15615616 16.        ]</t>
+  </si>
+  <si>
+    <t>[11.62762763 14.07807808 19.65165165 22.15015015]</t>
+  </si>
+  <si>
+    <t>[ 7.3993994  10.47447447 12.3003003  15.42342342]</t>
+  </si>
+  <si>
+    <t>[0.12370655]</t>
+  </si>
+  <si>
+    <t>[0.1353675  0.12413074 0.13654992]</t>
+  </si>
+  <si>
+    <t>[0.14385835 0.13848642 0.13498507 0.13494425 0.13079376]</t>
+  </si>
+  <si>
+    <t>[0.14277017 0.14252163 0.14308159 0.13263836]</t>
+  </si>
+  <si>
+    <t>[0.14441306 0.14103095 0.14169807 0.14438121 0.13849836 0.13598728]</t>
+  </si>
+  <si>
+    <t>[0.18107563 0.16019218 0.15902715 0.18759072]</t>
+  </si>
+  <si>
+    <t>[0.15493807 0.14887326 0.14705769]</t>
+  </si>
+  <si>
+    <t>[0.18110285 0.1977361 ]</t>
+  </si>
+  <si>
+    <t>[0.13581513 0.13646211 0.13652482 0.13652109 0.12803359]</t>
+  </si>
+  <si>
+    <t>[0.16700206 0.15501033 0.16735751]</t>
+  </si>
+  <si>
+    <t>[0.05722773 0.05666382 0.0577451  0.05533195]</t>
+  </si>
+  <si>
+    <t>[0.064135   0.06018226 0.06080979 0.06585233]</t>
+  </si>
+  <si>
+    <t>[4.08408408]</t>
+  </si>
+  <si>
+    <t>[ 2.54654655  5.23723724  9.51351351 20.51651652]</t>
+  </si>
+  <si>
+    <t>[ 0.67267267  2.93093093  5.14114114  7.3993994  21.81381381]</t>
+  </si>
+  <si>
+    <t>[ 3.21921922 20.18018018 23.11111111]</t>
+  </si>
+  <si>
+    <t>[1.72972973 4.70870871 7.63963964]</t>
+  </si>
+  <si>
+    <t>[ 3.89189189  9.65765766 21.90990991]</t>
+  </si>
+  <si>
+    <t>[ 0.33633634  2.83483483  5.47747748 21.57357357]</t>
+  </si>
+  <si>
+    <t>[ 3.41141141  8.79279279 23.78378378]</t>
+  </si>
+  <si>
+    <t>[1.82582583 5.04504505]</t>
+  </si>
+  <si>
+    <t>[0.52852853 2.59459459 4.8048048 ]</t>
+  </si>
+  <si>
+    <t>[0.48048048 2.83483483 7.78378378]</t>
+  </si>
+  <si>
+    <t>[0.91291291 3.45945946 5.04504505 9.12912913]</t>
+  </si>
+  <si>
+    <t>[0.10627961]</t>
+  </si>
+  <si>
+    <t>[0.10816366 0.11389974 0.12111723 0.11728305]</t>
+  </si>
+  <si>
+    <t>[0.11917713 0.120685   0.11769495 0.11919973 0.12813574]</t>
+  </si>
+  <si>
+    <t>[0.11771401 0.12955085 0.12466328]</t>
+  </si>
+  <si>
+    <t>[0.12470235 0.13145348 0.13114316]</t>
+  </si>
+  <si>
+    <t>[0.12573446 0.15588076 0.13978524]</t>
+  </si>
+  <si>
+    <t>[0.12826893 0.12762227 0.12989806 0.13634598]</t>
+  </si>
+  <si>
+    <t>[0.13805421 0.16327524 0.13248325]</t>
+  </si>
+  <si>
+    <t>[0.11420148 0.11784581]</t>
+  </si>
+  <si>
+    <t>[0.12002711 0.12173159 0.12366142]</t>
+  </si>
+  <si>
+    <t>[0.05363725 0.05286562 0.0530637 ]</t>
+  </si>
+  <si>
+    <t>[0.0535771  0.05535827 0.05528403 0.05903949]</t>
   </si>
 </sst>
 </file>
@@ -614,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,13 +678,10 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -720,39 +714,36 @@
         <v>3587.310679159925</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>0.008713544328225867</v>
       </c>
       <c r="M2">
-        <v>0.00871353374591631</v>
+        <v>2.962342622303889</v>
       </c>
       <c r="N2">
-        <v>-3.328180405454652</v>
-      </c>
-      <c r="O2">
-        <v>0.1149931005053021</v>
+        <v>0.1149931182496139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="S2">
+        <v>0.007403639039590922</v>
       </c>
       <c r="T2">
-        <v>0.007403639039590922</v>
-      </c>
-      <c r="U2">
         <v>0.003772070114476265</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -785,39 +776,36 @@
         <v>11933.84677423133</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>0.01419441832980448</v>
       </c>
       <c r="M3">
-        <v>0.01419425489450581</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="N3">
-        <v>-5.896382608088952</v>
-      </c>
-      <c r="O3">
-        <v>0.12235760250554</v>
+        <v>0.1223575888853553</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="S3">
+        <v>0.01057869912746084</v>
       </c>
       <c r="T3">
-        <v>0.01057869912746084</v>
-      </c>
-      <c r="U3">
         <v>0.005395296779850329</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -850,39 +838,36 @@
         <v>3639.905117295538</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>0.0130830158941669</v>
       </c>
       <c r="M4">
-        <v>0.01308326530503776</v>
+        <v>-3.018947895341543</v>
       </c>
       <c r="N4">
-        <v>-3.013706666356575</v>
-      </c>
-      <c r="O4">
-        <v>0.1307772242264873</v>
+        <v>0.1307772059474842</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>0.007014637151168202</v>
       </c>
       <c r="T4">
-        <v>0.007014637151168202</v>
-      </c>
-      <c r="U4">
         <v>0.00357380543494398</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -915,39 +900,36 @@
         <v>12447.73681644493</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>0.0126837911761689</v>
       </c>
       <c r="M5">
-        <v>0.01268402212946744</v>
+        <v>-1.98747403109985</v>
       </c>
       <c r="N5">
-        <v>-11.95000208572694</v>
-      </c>
-      <c r="O5">
-        <v>0.1303978400235531</v>
+        <v>0.1303978036899569</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="S5">
+        <v>0.009614913825012375</v>
       </c>
       <c r="T5">
-        <v>0.009614913825012375</v>
-      </c>
-      <c r="U5">
         <v>0.004903784770627988</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -980,39 +962,36 @@
         <v>3311.342302117962</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>0.009856322402919004</v>
       </c>
       <c r="M6">
-        <v>0.009856623153327422</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="N6">
-        <v>-10.69210712933463</v>
-      </c>
-      <c r="O6">
-        <v>0.1345583085562918</v>
+        <v>0.134558645767332</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <v>0.01022820696668785</v>
       </c>
       <c r="T6">
-        <v>0.01022820696668785</v>
-      </c>
-      <c r="U6">
         <v>0.005211040570513071</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -1045,39 +1024,36 @@
         <v>10598.04696084921</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>0.03092813054947027</v>
       </c>
       <c r="M7">
-        <v>0.0309282981703235</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="N7">
-        <v>-4.114364753199847</v>
-      </c>
-      <c r="O7">
-        <v>0.1566624252205673</v>
+        <v>0.1566625928414205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="S7">
+        <v>0.0169382806802609</v>
       </c>
       <c r="T7">
-        <v>0.0169382806802609</v>
-      </c>
-      <c r="U7">
         <v>0.00863882439576415</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -1110,39 +1086,36 @@
         <v>3151.384925575825</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>0.01365990362644404</v>
       </c>
       <c r="M8">
-        <v>0.01365963386900178</v>
+        <v>3.08813211794312</v>
       </c>
       <c r="N8">
-        <v>-3.197149680830454</v>
-      </c>
-      <c r="O8">
-        <v>0.1412807607775385</v>
+        <v>0.1412805272538424</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="S8">
+        <v>0.0122521484348374</v>
       </c>
       <c r="T8">
-        <v>0.0122521484348374</v>
-      </c>
-      <c r="U8">
         <v>0.006242203797935599</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -1175,39 +1148,36 @@
         <v>10014.88539029778</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>0.03262996699243495</v>
       </c>
       <c r="M9">
-        <v>0.03262976115464256</v>
+        <v>2.207605648468504</v>
       </c>
       <c r="N9">
-        <v>-4.061952463350166</v>
-      </c>
-      <c r="O9">
-        <v>0.1651114751825407</v>
+        <v>0.1651114108163415</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>0.01990912474572241</v>
       </c>
       <c r="T9">
-        <v>0.01990912474572241</v>
-      </c>
-      <c r="U9">
         <v>0.01015398035940463</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -1240,39 +1210,36 @@
         <v>3388.930598489846</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0.011162099891211</v>
       </c>
       <c r="M10">
-        <v>0.01116191503744696</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="N10">
-        <v>-34.27763756169044</v>
-      </c>
-      <c r="O10">
-        <v>0.1253625310354064</v>
+        <v>0.1253627158891704</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="S10">
+        <v>0.009303207094014674</v>
       </c>
       <c r="T10">
-        <v>0.009303207094014674</v>
-      </c>
-      <c r="U10">
         <v>0.004739765844243052</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -1305,39 +1272,36 @@
         <v>10241.96974705144</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>0.02366670258254723</v>
       </c>
       <c r="M11">
-        <v>0.0236664786852514</v>
+        <v>-1.98747403109985</v>
       </c>
       <c r="N11">
-        <v>-5.975001042863471</v>
-      </c>
-      <c r="O11">
-        <v>0.1436928836600217</v>
+        <v>0.1436928069530093</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="S11">
+        <v>0.01816025740793472</v>
       </c>
       <c r="T11">
-        <v>0.01816025740793472</v>
-      </c>
-      <c r="U11">
         <v>0.009262009799252249</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -1370,39 +1334,36 @@
         <v>4462.985887243836</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>0.00243973786356572</v>
       </c>
       <c r="M12">
-        <v>0.00243979012680819</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="N12">
-        <v>-9.119738433844246</v>
-      </c>
-      <c r="O12">
-        <v>0.05530532207514385</v>
+        <v>0.05530535831312064</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="S12">
+        <v>0.002613380311230978</v>
       </c>
       <c r="T12">
-        <v>0.002613380311230978</v>
-      </c>
-      <c r="U12">
         <v>0.001331453681206077</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>24</v>
@@ -1435,33 +1396,30 @@
         <v>14411.73648749275</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>0.006138721028909996</v>
       </c>
       <c r="M13">
-        <v>0.006138653083086032</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="N13">
-        <v>-4.035746318425327</v>
-      </c>
-      <c r="O13">
-        <v>0.05971535254897603</v>
+        <v>0.05971544325907148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="S13">
+        <v>0.00486979601398049</v>
       </c>
       <c r="T13">
-        <v>0.00486979601398049</v>
-      </c>
-      <c r="U13">
         <v>0.002483672816316706</v>
       </c>
     </row>
